--- a/cases-paper.xlsx
+++ b/cases-paper.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Salinity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.Code\00.Github\Self-Supervised-Learning-for-Salinity-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FEB451-A77A-4849-BDFB-41B222C7AE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7086A75F-3086-4428-851F-350B97F33AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AS$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
   <si>
     <t>Case</t>
   </si>
@@ -153,23 +156,32 @@
     <t>ethylene_methane</t>
   </si>
   <si>
+    <t>HyperNDLinear</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>RNN_Based</t>
+  </si>
+  <si>
+    <t>patience</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>standard</t>
   </si>
   <si>
-    <t>HyperNDLinear</t>
-  </si>
-  <si>
-    <t>Univariate</t>
-  </si>
-  <si>
-    <t>patience</t>
+    <t>ResLSTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,38 +196,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -230,13 +217,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,18 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP34"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -538,37 +521,40 @@
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,97 +592,106 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -704,7 +699,7 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -722,22 +717,22 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>10000000</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="s">
+        <v>46</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -778,20 +773,20 @@
       <c r="AA2" t="b">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>0</v>
-      </c>
       <c r="AF2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="b">
         <v>0</v>
@@ -823,8 +818,17 @@
       <c r="AP2" t="b">
         <v>0</v>
       </c>
+      <c r="AQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -832,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -850,22 +854,22 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>10000000</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>46</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -906,20 +910,20 @@
       <c r="AA3" t="b">
         <v>0</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>0</v>
-      </c>
       <c r="AF3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -951,8 +955,17 @@
       <c r="AP3" t="b">
         <v>0</v>
       </c>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -960,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -978,22 +991,22 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>10000000</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="s">
+        <v>46</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1034,20 +1047,20 @@
       <c r="AA4" t="b">
         <v>0</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>0</v>
-      </c>
       <c r="AF4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1079,22 +1092,31 @@
       <c r="AP4" t="b">
         <v>0</v>
       </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
+      <c r="C5">
+        <v>128</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
       </c>
       <c r="F5">
         <v>32768</v>
@@ -1106,22 +1128,22 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>10000000</v>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="s">
+        <v>46</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1162,20 +1184,20 @@
       <c r="AA5" t="b">
         <v>0</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
       <c r="AF5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1207,22 +1229,31 @@
       <c r="AP5" t="b">
         <v>0</v>
       </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3">
-        <v>14</v>
+      <c r="C6">
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>32768</v>
@@ -1234,22 +1265,22 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>10000000</v>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>46</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1290,20 +1321,20 @@
       <c r="AA6" t="b">
         <v>0</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>0</v>
-      </c>
       <c r="AF6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -1335,8 +1366,17 @@
       <c r="AP6" t="b">
         <v>0</v>
       </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1344,13 +1384,13 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>32768</v>
@@ -1362,22 +1402,22 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>10000000</v>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="s">
+        <v>46</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1418,20 +1458,20 @@
       <c r="AA7" t="b">
         <v>0</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
       <c r="AF7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -1463,8 +1503,17 @@
       <c r="AP7" t="b">
         <v>0</v>
       </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1472,13 +1521,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>32768</v>
@@ -1490,22 +1539,22 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L8">
         <v>10000000</v>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="s">
+        <v>46</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1546,20 +1595,20 @@
       <c r="AA8" t="b">
         <v>0</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>0</v>
-      </c>
       <c r="AF8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1591,150 +1640,31 @@
       <c r="AP8" t="b">
         <v>0</v>
       </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>32768</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>10000000</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>32768</v>
@@ -1746,22 +1676,22 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>10000000</v>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="s">
+        <v>46</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1802,44 +1732,44 @@
       <c r="AA10" t="b">
         <v>0</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
         <v>25</v>
       </c>
-      <c r="AC10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
       <c r="AF10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="b">
         <v>0</v>
@@ -1847,22 +1777,31 @@
       <c r="AP10" t="b">
         <v>0</v>
       </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>32768</v>
@@ -1874,22 +1813,22 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>10000000</v>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="s">
+        <v>46</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1930,44 +1869,44 @@
       <c r="AA11" t="b">
         <v>0</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>0</v>
-      </c>
       <c r="AF11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="b">
         <v>0</v>
@@ -1975,22 +1914,31 @@
       <c r="AP11" t="b">
         <v>0</v>
       </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>32768</v>
@@ -2002,22 +1950,22 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>10000000</v>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="s">
+        <v>46</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -2058,44 +2006,44 @@
       <c r="AA12" t="b">
         <v>0</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="b">
-        <v>0</v>
-      </c>
       <c r="AF12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="b">
         <v>0</v>
@@ -2103,22 +2051,31 @@
       <c r="AP12" t="b">
         <v>0</v>
       </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>32768</v>
@@ -2130,22 +2087,22 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
         <v>25</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>10000000</v>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="s">
+        <v>46</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -2186,44 +2143,44 @@
       <c r="AA13" t="b">
         <v>0</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
         <v>25</v>
       </c>
-      <c r="AC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>0</v>
-      </c>
       <c r="AF13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" t="b">
         <v>0</v>
@@ -2231,22 +2188,31 @@
       <c r="AP13" t="b">
         <v>0</v>
       </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>32768</v>
@@ -2258,22 +2224,22 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>10000000</v>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="s">
+        <v>46</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -2314,44 +2280,44 @@
       <c r="AA14" t="b">
         <v>0</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
         <v>25</v>
       </c>
-      <c r="AC14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="b">
-        <v>0</v>
-      </c>
       <c r="AF14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="b">
         <v>0</v>
@@ -2359,22 +2325,31 @@
       <c r="AP14" t="b">
         <v>0</v>
       </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>32768</v>
@@ -2386,22 +2361,22 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>25</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L15">
         <v>10000000</v>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="s">
+        <v>46</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -2442,44 +2417,44 @@
       <c r="AA15" t="b">
         <v>0</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>0</v>
-      </c>
       <c r="AF15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="b">
         <v>0</v>
@@ -2487,22 +2462,31 @@
       <c r="AP15" t="b">
         <v>0</v>
       </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
         <v>64</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
       <c r="E16">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>32768</v>
@@ -2514,22 +2498,22 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L16">
         <v>10000000</v>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="s">
+        <v>46</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -2570,44 +2554,44 @@
       <c r="AA16" t="b">
         <v>0</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
         <v>25</v>
       </c>
-      <c r="AC16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>0</v>
-      </c>
       <c r="AF16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="b">
         <v>0</v>
@@ -2615,150 +2599,31 @@
       <c r="AP16" t="b">
         <v>0</v>
       </c>
+      <c r="AQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>64</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>32768</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>10000000</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" t="b">
-        <v>0</v>
-      </c>
-      <c r="V17" t="b">
-        <v>0</v>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>32768</v>
@@ -2770,22 +2635,22 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>10000000</v>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="s">
+        <v>46</v>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -2826,20 +2691,21 @@
       <c r="AA18" t="b">
         <v>0</v>
       </c>
-      <c r="AB18" t="s">
-        <v>25</v>
+      <c r="AB18" t="b">
+        <v>0</v>
       </c>
       <c r="AC18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
-      <c r="AE18" t="b">
-        <v>0</v>
+      <c r="AE18" t="str">
+        <f>"case" &amp; A10</f>
+        <v>case8</v>
       </c>
       <c r="AF18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="b">
         <v>0</v>
@@ -2871,22 +2737,31 @@
       <c r="AP18" t="b">
         <v>0</v>
       </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>32768</v>
@@ -2898,22 +2773,22 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>10000000</v>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="s">
+        <v>46</v>
       </c>
       <c r="N19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -2954,67 +2829,215 @@
       <c r="AA19" t="b">
         <v>0</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" ref="AE19:AE24" si="0">"case" &amp; A11</f>
+        <v>case9</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>32768</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="b">
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>10000000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="0"/>
+        <v>case10</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>19</v>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>32768</v>
@@ -3026,22 +3049,22 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
         <v>25</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>10000000</v>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="s">
+        <v>46</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -3082,38 +3105,39 @@
       <c r="AA21" t="b">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
-        <v>25</v>
+      <c r="AB21" t="b">
+        <v>0</v>
       </c>
       <c r="AC21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="0"/>
+        <v>case11</v>
       </c>
       <c r="AF21" t="b">
         <v>1</v>
       </c>
       <c r="AG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="b">
         <v>0</v>
       </c>
       <c r="AJ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="b">
         <v>0</v>
@@ -3127,22 +3151,31 @@
       <c r="AP21" t="b">
         <v>0</v>
       </c>
+      <c r="AQ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>20</v>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>32768</v>
@@ -3154,22 +3187,22 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <v>10000000</v>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="s">
+        <v>46</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -3210,21 +3243,21 @@
       <c r="AA22" t="b">
         <v>0</v>
       </c>
-      <c r="AB22" t="str">
-        <f>"case" &amp; A21</f>
-        <v>case19</v>
+      <c r="AB22" t="b">
+        <v>0</v>
       </c>
       <c r="AC22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
-      <c r="AE22" t="b">
-        <v>0</v>
+      <c r="AE22" t="str">
+        <f t="shared" si="0"/>
+        <v>case12</v>
       </c>
       <c r="AF22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="b">
         <v>0</v>
@@ -3256,22 +3289,31 @@
       <c r="AP22" t="b">
         <v>0</v>
       </c>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>32768</v>
@@ -3283,22 +3325,22 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
         <v>25</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L23">
         <v>10000000</v>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="s">
+        <v>46</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -3339,38 +3381,39 @@
       <c r="AA23" t="b">
         <v>0</v>
       </c>
-      <c r="AB23" t="s">
-        <v>25</v>
+      <c r="AB23" t="b">
+        <v>0</v>
       </c>
       <c r="AC23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="0"/>
+        <v>case13</v>
       </c>
       <c r="AF23" t="b">
         <v>1</v>
       </c>
       <c r="AG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="b">
         <v>0</v>
       </c>
       <c r="AJ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="b">
         <v>0</v>
@@ -3384,22 +3427,31 @@
       <c r="AP23" t="b">
         <v>0</v>
       </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>22</v>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>32768</v>
@@ -3411,22 +3463,22 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
         <v>25</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <v>10000000</v>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="s">
+        <v>46</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -3467,21 +3519,21 @@
       <c r="AA24" t="b">
         <v>0</v>
       </c>
-      <c r="AB24" t="str">
-        <f>"case" &amp; A23</f>
-        <v>case21</v>
+      <c r="AB24" t="b">
+        <v>0</v>
       </c>
       <c r="AC24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
-      <c r="AE24" t="b">
-        <v>0</v>
+      <c r="AE24" t="str">
+        <f t="shared" si="0"/>
+        <v>case14</v>
       </c>
       <c r="AF24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -3513,22 +3565,31 @@
       <c r="AP24" t="b">
         <v>0</v>
       </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>23</v>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>32768</v>
@@ -3540,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
@@ -3551,11 +3612,11 @@
       <c r="L26">
         <v>10000000</v>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="s">
+        <v>46</v>
       </c>
       <c r="N26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -3596,38 +3657,39 @@
       <c r="AA26" t="b">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
-        <v>25</v>
+      <c r="AB26" t="b">
+        <v>0</v>
       </c>
       <c r="AC26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE26" t="str">
+        <f>"case" &amp; A10</f>
+        <v>case8</v>
       </c>
       <c r="AF26" t="b">
         <v>1</v>
       </c>
       <c r="AG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="b">
         <v>0</v>
       </c>
       <c r="AJ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="b">
         <v>0</v>
@@ -3641,22 +3703,31 @@
       <c r="AP26" t="b">
         <v>0</v>
       </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>24</v>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>32768</v>
@@ -3668,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
@@ -3679,11 +3750,11 @@
       <c r="L27">
         <v>10000000</v>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="s">
+        <v>46</v>
       </c>
       <c r="N27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -3724,21 +3795,21 @@
       <c r="AA27" t="b">
         <v>0</v>
       </c>
-      <c r="AB27" t="str">
-        <f>"case" &amp; A26</f>
-        <v>case23</v>
+      <c r="AB27" t="b">
+        <v>0</v>
       </c>
       <c r="AC27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
-      <c r="AE27" t="b">
-        <v>0</v>
+      <c r="AE27" t="str">
+        <f t="shared" ref="AE27:AE32" si="1">"case" &amp; A11</f>
+        <v>case9</v>
       </c>
       <c r="AF27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -3770,22 +3841,31 @@
       <c r="AP27" t="b">
         <v>0</v>
       </c>
+      <c r="AQ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>25</v>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>32768</v>
@@ -3797,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
@@ -3808,11 +3888,11 @@
       <c r="L28">
         <v>10000000</v>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="s">
+        <v>46</v>
       </c>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -3853,61 +3933,71 @@
       <c r="AA28" t="b">
         <v>0</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="str">
+        <f t="shared" si="1"/>
+        <v>case10</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>25</v>
       </c>
-      <c r="AC28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>26</v>
-      </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -3925,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
         <v>25</v>
@@ -3936,11 +4026,11 @@
       <c r="L29">
         <v>10000000</v>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="s">
+        <v>46</v>
       </c>
       <c r="N29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -3981,21 +4071,21 @@
       <c r="AA29" t="b">
         <v>0</v>
       </c>
-      <c r="AB29" t="str">
-        <f>"case" &amp; A28</f>
-        <v>case25</v>
+      <c r="AB29" t="b">
+        <v>0</v>
       </c>
       <c r="AC29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
-      <c r="AE29" t="b">
-        <v>0</v>
+      <c r="AE29" t="str">
+        <f t="shared" si="1"/>
+        <v>case11</v>
       </c>
       <c r="AF29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" t="b">
         <v>0</v>
@@ -4027,16 +4117,163 @@
       <c r="AP29" t="b">
         <v>0</v>
       </c>
+      <c r="AQ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>128</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>32768</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>10000000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="str">
+        <f t="shared" si="1"/>
+        <v>case12</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D31">
         <v>32</v>
@@ -4054,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
         <v>25</v>
@@ -4065,11 +4302,11 @@
       <c r="L31">
         <v>10000000</v>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="s">
+        <v>46</v>
       </c>
       <c r="N31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -4110,38 +4347,39 @@
       <c r="AA31" t="b">
         <v>0</v>
       </c>
-      <c r="AB31" t="s">
-        <v>25</v>
+      <c r="AB31" t="b">
+        <v>0</v>
       </c>
       <c r="AC31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE31" t="str">
+        <f t="shared" si="1"/>
+        <v>case13</v>
       </c>
       <c r="AF31" t="b">
         <v>1</v>
       </c>
       <c r="AG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="b">
         <v>0</v>
       </c>
       <c r="AJ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="b">
         <v>0</v>
@@ -4155,22 +4393,31 @@
       <c r="AP31" t="b">
         <v>0</v>
       </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
       <c r="C32">
+        <v>128</v>
+      </c>
+      <c r="D32">
         <v>64</v>
       </c>
-      <c r="D32">
-        <v>32</v>
-      </c>
       <c r="E32">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <v>32768</v>
@@ -4182,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
         <v>25</v>
@@ -4193,11 +4440,11 @@
       <c r="L32">
         <v>10000000</v>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="s">
+        <v>46</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -4238,21 +4485,21 @@
       <c r="AA32" t="b">
         <v>0</v>
       </c>
-      <c r="AB32" t="str">
-        <f>"case" &amp; A31</f>
-        <v>case27</v>
+      <c r="AB32" t="b">
+        <v>0</v>
       </c>
       <c r="AC32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
-      <c r="AE32" t="b">
-        <v>0</v>
+      <c r="AE32" t="str">
+        <f t="shared" si="1"/>
+        <v>case14</v>
       </c>
       <c r="AF32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4284,265 +4531,18 @@
       <c r="AP32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>64</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="F33">
-        <v>32768</v>
-      </c>
-      <c r="G33">
-        <v>0.1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33">
-        <v>100</v>
-      </c>
-      <c r="L33">
-        <v>10000000</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="b">
-        <v>0</v>
-      </c>
-      <c r="R33" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33" t="b">
-        <v>0</v>
-      </c>
-      <c r="U33" t="b">
-        <v>0</v>
-      </c>
-      <c r="V33" t="b">
-        <v>0</v>
-      </c>
-      <c r="W33" t="b">
-        <v>0</v>
-      </c>
-      <c r="X33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>64</v>
-      </c>
-      <c r="D34">
-        <v>32</v>
-      </c>
-      <c r="E34">
-        <v>32</v>
-      </c>
-      <c r="F34">
-        <v>32768</v>
-      </c>
-      <c r="G34">
-        <v>0.1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-      <c r="L34">
-        <v>10000000</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="b">
-        <v>0</v>
-      </c>
-      <c r="R34" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34" t="b">
-        <v>0</v>
-      </c>
-      <c r="U34" t="b">
-        <v>0</v>
-      </c>
-      <c r="V34" t="b">
-        <v>0</v>
-      </c>
-      <c r="W34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="str">
-        <f>"case" &amp; A33</f>
-        <v>case29</v>
-      </c>
-      <c r="AC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="b">
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AS1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>